--- a/all_channels.xlsx
+++ b/all_channels.xlsx
@@ -11,11 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Belal Assaad" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arabic 101" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Khalid Mehmood Abbasi" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yaqeen Institute" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tarteel AI" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ali Hammuda" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Towards Eternity" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Engineer Muhammad Ali Mirza" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -53,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,22 +425,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Upload Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
@@ -593,22 +576,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Upload Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
@@ -617,110 +600,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nothing can overcome The Compeller, The Mender, The Most High (Al Jabbar)</t>
+          <t>A Reflection on Self-Worth and Existence - The Fashioner (Al Musawwir)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=wLOIL8c-5nE</t>
+          <t>https://www.youtube.com/watch?v=r8aS4qHUdCE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42m 42s</t>
+          <t>24m 3s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Manifest &amp; The Hidden (Az-Zahir wal-Batin)</t>
+          <t>Nothing can overcome The Compeller, The Mender, The Most High (Al Jabbar)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7SGtcWJH89Y</t>
+          <t>https://www.youtube.com/watch?v=wLOIL8c-5nE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67m 17s</t>
+          <t>42m 42s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The All-Knowing, The All-Wise Knows Why (Al-'Aleem, Al Hakeem)</t>
+          <t>The Manifest &amp; The Hidden (Az-Zahir wal-Batin)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=X7IG3V04gEU</t>
+          <t>https://www.youtube.com/watch?v=7SGtcWJH89Y</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52m 57s</t>
+          <t>67m 17s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The 'Ever Near' is always with you (Al-Qareeb)</t>
+          <t>The All-Knowing, The All-Wise Knows Why (Al-'Aleem, Al Hakeem)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=oFTvfZ77x_k</t>
+          <t>https://www.youtube.com/watch?v=X7IG3V04gEU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79m 58s</t>
+          <t>52m 57s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Have you ever felt spiritually disconnected?</t>
+          <t>The 'Ever Near' is always with you (Al-Qareeb)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pFUPHOtpeWs</t>
+          <t>https://www.youtube.com/watch?v=oFTvfZ77x_k</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-12-06</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75m 1s</t>
+          <t>79m 58s</t>
         </is>
       </c>
     </row>
@@ -744,22 +727,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Upload Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
@@ -768,110 +751,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Why Read the Whole Quran if One Surah = 1/3 ? | Arabic101</t>
+          <t>Wait!! Doesn't Allah Already Know Everything? How Is This Possible? | Arabic101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Up5WNJAHM_w</t>
+          <t>https://www.youtube.com/watch?v=MaW0Q76r-AY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8m 7s</t>
+          <t>7m 35s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A Rule Only Mastered by Advanced Learners | Dammah Continuation | Arabic101</t>
+          <t>Why Read the Whole Quran if One Surah = 1/3 ? | Arabic101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=x5YPUJONVhg</t>
+          <t>https://www.youtube.com/watch?v=Up5WNJAHM_w</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-26</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6m 41s</t>
+          <t>8m 7s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A Mind-Blowing Gem Hidden in the Most Common Arabic Word | Arabic101</t>
+          <t>A Rule Only Mastered by Advanced Learners | Dammah Continuation | Arabic101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8KYagLT0hb8</t>
+          <t>https://www.youtube.com/watch?v=x5YPUJONVhg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8m 36s</t>
+          <t>6m 41s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>We MUST Stop Saying This | Arabic101</t>
+          <t>A Mind-Blowing Gem Hidden in the Most Common Arabic Word | Arabic101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=0BNClIQv_k0</t>
+          <t>https://www.youtube.com/watch?v=8KYagLT0hb8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-11-28</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8m 11s</t>
+          <t>8m 36s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Qur’an Etiquettes Every Muslim Should Know | Arabic101</t>
+          <t>We MUST Stop Saying This | Arabic101</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=K3rUXKc3vPE</t>
+          <t>https://www.youtube.com/watch?v=0BNClIQv_k0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-11-14</t>
+          <t>2025-11-28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8m 41s</t>
+          <t>8m 11s</t>
         </is>
       </c>
     </row>
@@ -895,22 +878,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Upload Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
@@ -919,865 +902,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pakistan Ek Khudai Raaz Ep 29 | Global Powers vs Pakistan’s Survival | Divine Plan Revealed</t>
+          <t>Rah-e-Hidayat LEC 130 | Surah Nuh Ayat 01to 03 | Allah’s Law Behind the Destruction of Nations</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=59LcLHunzEY</t>
+          <t>https://www.youtube.com/watch?v=3FfhstfsiS8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2026-01-19</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28m 3s</t>
+          <t>42m 50s</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>World War III: Global Powers Face Off? | US Pressure, Iranian Resistance &amp; Saudi Policy Shift</t>
+          <t>Rising Pressure on Iran &amp; the Muslim World | A Qur’anic Perspective | Khalid Mehmood Abbasi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zYjbuZw86Vs</t>
+          <t>https://www.youtube.com/watch?v=m_nwhpDwbJs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96m 40s</t>
+          <t>62m 12s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pakistan Ek Khudai Raaz Ep 28 | Pakistan’s Future Wars &amp; Ultimate Victory | World War 3 Prophecies</t>
+          <t>Pakistan Ek Khudai Raaz Ep 29 | Global Powers vs Pakistan’s Survival | Divine Plan Revealed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=t4PmXsbaqUM</t>
+          <t>https://www.youtube.com/watch?v=59LcLHunzEY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2026-01-15</t>
+          <t>2026-01-19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28m 25s</t>
+          <t>28m 3s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unity of the Ummah &amp; the Obligation of Establishing Deen | Islamic Message | Khlaid Mehmood Abbasi</t>
+          <t>World War III: Global Powers Face Off? | US Pressure, Iranian Resistance &amp; Saudi Policy Shift</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7r-eQAuylqw</t>
+          <t>https://www.youtube.com/watch?v=zYjbuZw86Vs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>55m 11s</t>
+          <t>96m 40s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shadows of World War III &amp; the Divine Plan | An Islamic Perspective | Khalid Mehmood Abbasi</t>
+          <t>Pakistan Ek Khudai Raaz Ep 28 | Pakistan’s Future Wars &amp; Ultimate Victory | World War 3 Prophecies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tMByuIqvE14</t>
+          <t>https://www.youtube.com/watch?v=t4PmXsbaqUM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2026-01-12</t>
+          <t>2026-01-15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89m 16s</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Tips for When You're Struggling With Your Faith | Real Talk ft. Dr. Tesneem Alkiek</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=APFAqW11hMA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>28m 25s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Why Purposeful Absence Matters in Islam | Focal Point with Imam Tom Facchine</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=8W2h070z090</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32m 46s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Friends That Affirm You On Truth | LATEST Lecture by Dr. Omar Suleiman</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=DwzG2GO53IY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>37m 3s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>How to Wipe Out Your Sins | Servants of the Most Merciful | Ep. 7 | Dr. Omar Suleiman</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=geRnWggvz4U</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>42m 25s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The Plot to Dig the Prophet ﷺ’s Grave | The Salahuddin Generation | Ep. 7 | Dr. Hassan Elwan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=eoB5Dkr5yTE</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34m 5s</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>How Somalia Creates the World's Strongest Huffadh (Shocking!) | Ustadh Abdul Ahad</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=UYqzpp8UuKA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>39m 28s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Why You’re Addicted to Scrolling but Bored of the Quran | Sh. Abu Bakr Zoud &amp; Ust. Hisham Abu Yusuf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=kJ6IlWnEzLc</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21m 33s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Why Every Muslim Woman Should Memorize the Quran - Starting Today! | Ustadha Fatima Barkatulla</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Q3lYtqWnvww</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-12-21</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9m 10s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Knowing This Will CHANGE How You Memorize the Quran | Sheikh Abu Bakr Zoud &amp; Ustadh Hisham Abu Yusuf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ArJMe77751w</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>19m 35s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I Raised ALL Of My Sons to Memorize the Quran - Here's What Worked! | Ustadha Fatima Barkatulla</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=MeCzHRYuMLU</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17m 44s</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Father, I am sorry...</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=iZRCBA1grxs</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29m 27s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Five Hadith That Explain the World We’re Living In</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Ungxc-I9Uuk</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30m 6s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Manhood, masculinity or "Muru’ah"? Our Forgotten Code of Honour</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=hq7j5QrZmA8</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-01-02</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>68m 53s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>In Preparation For The Coming Days | Ep. 8 | Your Guide to the Blessed Land</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=wvrF9qQqJ4c</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-11-19</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>53m 10s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>True Messiah v False Messiah | Ep. 7 | Your Guide to the Blessed Land</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=LB_I7Gn2Wf4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>58m 7s</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3 Miracles Hidden in Quran’s ONE Letter! - You Will Be Shocked</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=cRVrMexGapM</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16m 32s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>"I Waited 5 Years To Marry Her” - Canadian Atheist Converts to Islam</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ygafmuwyokk</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-01-03</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20m 34s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>The Secret We Missed in Opening Du’a for Salah | Transform Your Salah - Ep. 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=h62l_cUVke0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-12-30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19m 27s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Why Your Life Suddenly Goes Wrong (Secrets of Falaq &amp; Nas) | Transform Your Salah - Ep. 2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=Mox2CCP2cFg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-12-24</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25m 28s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The 7 Verses That Made Shaytan Cry | Transform Your Salah - Ep. 1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=CtQqEuDGG04</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-12-20</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>27m 54s</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Upload Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>218_Public Q &amp; A Session with Engineer Muhammad Ali Mirza on SUNDAY [ 18_Jan_2026 ], Jhelum Academy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=CMdPxQ87m4Y</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>60m 43s</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>🔥 FAKE Blasphemy_Cases of 295 _C ? 🔥 CHANGES in Blasphemy_Laws in PAKISTAN ? 😭 Engineer Muhammad Ali</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=B2U14-y0bOg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>150m 49s</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>217_Public Q &amp; A Session with Engineer Muhammad Ali Mirza on SUNDAY [ 11_Jan_2026 ], Jhelum Academy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=vlG-KhMahGo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2026-01-17</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>59m 23s</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>❤️  Meraj_un_NABI ﷺ ka Sahih Waqiah ? ❤️ ALLAH عزوجل ka Deedar ? 🔥 By Engineer Muhammad Ali Mirza</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=boTGRscyTM8</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>151m 18s</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>216_Public Q &amp; A Session with Engineer Muhammad Ali Mirza on SUNDAY [ 04_Jan_2026 ], Jhelum Academy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=FXYorWgljuk</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2026-01-10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>56m 13s</t>
         </is>
       </c>
     </row>
